--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.022020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Keene.Spring.022020.xlsx_with_dialog_acts.xlsx
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1101,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2193,12 +2193,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3117,12 +3117,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3327,12 +3327,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3789,12 +3789,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5351,12 +5351,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6065,12 +6065,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6359,12 +6359,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6695,12 +6695,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6863,12 +6863,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6989,12 +6989,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7329,12 +7329,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7623,12 +7623,12 @@
       <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7749,12 +7749,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7833,12 +7833,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7917,12 +7917,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8215,12 +8215,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9403,12 +9403,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9821,12 +9821,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10115,12 +10115,12 @@
       <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10157,12 +10157,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10409,12 +10409,12 @@
       <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10493,12 +10493,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10577,12 +10577,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10619,12 +10619,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10661,12 +10661,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11169,12 +11169,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11379,12 +11379,12 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11883,12 +11883,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12643,12 +12643,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13063,12 +13063,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13399,12 +13399,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13987,12 +13987,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14113,12 +14113,12 @@
       <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14197,12 +14197,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15209,12 +15209,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15251,12 +15251,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15717,12 +15717,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16011,12 +16011,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16095,12 +16095,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16599,12 +16599,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16641,12 +16641,12 @@
       </c>
       <c r="I385" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16767,12 +16767,12 @@
       <c r="H388" t="inlineStr"/>
       <c r="I388" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16809,12 +16809,12 @@
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16851,12 +16851,12 @@
       <c r="H390" t="inlineStr"/>
       <c r="I390" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17185,12 +17185,12 @@
       <c r="H398" t="inlineStr"/>
       <c r="I398" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17267,12 +17267,12 @@
       <c r="H400" t="inlineStr"/>
       <c r="I400" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17727,12 +17727,12 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18319,12 +18319,12 @@
       <c r="H425" t="inlineStr"/>
       <c r="I425" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18361,12 +18361,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18403,12 +18403,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18445,12 +18445,12 @@
       <c r="H428" t="inlineStr"/>
       <c r="I428" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18827,12 +18827,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19079,12 +19079,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19121,12 +19121,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19289,12 +19289,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19625,12 +19625,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19711,12 +19711,12 @@
       <c r="H458" t="inlineStr"/>
       <c r="I458" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J458" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19837,12 +19837,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19963,12 +19963,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20131,12 +20131,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20677,12 +20677,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21269,12 +21269,12 @@
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -21605,12 +21605,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21773,12 +21773,12 @@
       </c>
       <c r="I507" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22239,12 +22239,12 @@
       <c r="H518" t="inlineStr"/>
       <c r="I518" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23035,12 +23035,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23161,12 +23161,12 @@
       <c r="H540" t="inlineStr"/>
       <c r="I540" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J540" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23203,12 +23203,12 @@
       <c r="H541" t="inlineStr"/>
       <c r="I541" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J541" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23665,12 +23665,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23791,12 +23791,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24799,12 +24799,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -25093,12 +25093,12 @@
       <c r="H586" t="inlineStr"/>
       <c r="I586" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25303,12 +25303,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25681,12 +25681,12 @@
       <c r="H600" t="inlineStr"/>
       <c r="I600" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J600" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26395,12 +26395,12 @@
       <c r="H617" t="inlineStr"/>
       <c r="I617" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -26479,12 +26479,12 @@
       <c r="H619" t="inlineStr"/>
       <c r="I619" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26941,12 +26941,12 @@
       <c r="H630" t="inlineStr"/>
       <c r="I630" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J630" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27655,12 +27655,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27697,12 +27697,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27739,12 +27739,12 @@
       <c r="H649" t="inlineStr"/>
       <c r="I649" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J649" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28705,12 +28705,12 @@
       <c r="H672" t="inlineStr"/>
       <c r="I672" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J672" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -28747,12 +28747,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28831,12 +28831,12 @@
       <c r="H675" t="inlineStr"/>
       <c r="I675" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J675" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30133,12 +30133,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30217,12 +30217,12 @@
       <c r="H708" t="inlineStr"/>
       <c r="I708" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -30343,12 +30343,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30679,12 +30679,12 @@
       <c r="H719" t="inlineStr"/>
       <c r="I719" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J719" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
